--- a/Casos_Prueba.xlsx
+++ b/Casos_Prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\Proyecto Personal Git Hub\ProyectoLenovo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1351CA40-1C3E-4981-90BB-C1D2D48AF5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF36E8D-8360-4B48-80B9-F124A96C011F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2288C5D-5DB0-439E-8621-5DE4FEE300A6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -115,6 +115,42 @@
   </si>
   <si>
     <t>7. Ingresar el cupon  y aplicarlo</t>
+  </si>
+  <si>
+    <t>Actualizar el carrito de compras</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Seleccionar un producto y comprarlo</t>
+  </si>
+  <si>
+    <t>Moto G9 Power 128GB - Verde</t>
+  </si>
+  <si>
+    <t>2. Buscar algun producto y agregarlo al carrito</t>
+  </si>
+  <si>
+    <t>3. actualizar la cantidad a 2</t>
+  </si>
+  <si>
+    <t>4. Actualizar la cantidad a 3</t>
+  </si>
+  <si>
+    <t>5. Actualizar la cantidad a 10</t>
+  </si>
+  <si>
+    <t>6. Actualizar la cantidad a 5</t>
+  </si>
+  <si>
+    <t>7. Actualizar la cantidad a 1</t>
+  </si>
+  <si>
+    <t>El valor del precio total de los productos debe ser correcto al añadir o quitar cantidades</t>
+  </si>
+  <si>
+    <t>El valor total a pagar se actualizo correctamente al añadir o eliminar las cantidades</t>
   </si>
 </sst>
 </file>
@@ -288,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -299,46 +335,64 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,16 +708,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF41B12-817A-4229-8BBD-1264EEED5D07}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
@@ -717,155 +771,305 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="13">
         <v>44452</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="11"/>
       <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="12"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="13" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="12"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="11"/>
       <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="12"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="11"/>
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="12"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="11"/>
       <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="12"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="17" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="18"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="13">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="L2:L8"/>
+  <mergeCells count="24">
+    <mergeCell ref="K9:K15"/>
+    <mergeCell ref="L9:L15"/>
+    <mergeCell ref="M9:M15"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="H9:H15"/>
+    <mergeCell ref="I9:I15"/>
+    <mergeCell ref="J9:J15"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
     <mergeCell ref="M2:M8"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B8"/>
@@ -873,6 +1077,11 @@
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="F2:F8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="L2:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos_Prueba.xlsx
+++ b/Casos_Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\Proyecto Personal Git Hub\ProyectoLenovo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF36E8D-8360-4B48-80B9-F124A96C011F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A477E23D-FE0B-4011-890E-76FBFE589495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2288C5D-5DB0-439E-8621-5DE4FEE300A6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -151,6 +151,36 @@
   </si>
   <si>
     <t>El valor total a pagar se actualizo correctamente al añadir o eliminar las cantidades</t>
+  </si>
+  <si>
+    <t>2. Ir al icono de inicio de sesion ubicado en la parte superior derecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Click en iniciar sesion </t>
+  </si>
+  <si>
+    <t>4. Click en "has olvidado tu contraseña?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Ingresar el correo registrado </t>
+  </si>
+  <si>
+    <t>6. Hacer click en enviar</t>
+  </si>
+  <si>
+    <t>Correo registrado en la pagina</t>
+  </si>
+  <si>
+    <t>Haberse registrado exitosamente en la pagina  y tener cuenta activa</t>
+  </si>
+  <si>
+    <t>Restablecer contraseña de la cuenta</t>
+  </si>
+  <si>
+    <t>Visualizar el correo para restablecer mi contraseña de la cuenta y cambiarla exitosamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El correo para restablecer la contraseña ha llegado inmediatamente, al ingresar al link se realiza el proceso de cambio de contraseña </t>
   </si>
 </sst>
 </file>
@@ -324,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -341,58 +371,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,10 +741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF41B12-817A-4229-8BBD-1264EEED5D07}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,293 +805,443 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="14">
         <v>44452</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23"/>
       <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="14"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="14"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="23"/>
       <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="14"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="11"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="23"/>
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="14"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="23"/>
       <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="14"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="15"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="17">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="14">
         <v>44458</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="14"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="14"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="22" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="14"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="14"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="22" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="14"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="24" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="15"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>3</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="14">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="36">
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="L2:L8"/>
     <mergeCell ref="K9:K15"/>
     <mergeCell ref="L9:L15"/>
     <mergeCell ref="M9:M15"/>
@@ -1070,18 +1254,6 @@
     <mergeCell ref="E9:E15"/>
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="C9:C15"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="L2:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos_Prueba.xlsx
+++ b/Casos_Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\Proyecto Personal Git Hub\ProyectoLenovo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A477E23D-FE0B-4011-890E-76FBFE589495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4326A5-2D97-4456-B1A4-22715C04A969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2288C5D-5DB0-439E-8621-5DE4FEE300A6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -181,6 +181,36 @@
   </si>
   <si>
     <t xml:space="preserve">El correo para restablecer la contraseña ha llegado inmediatamente, al ingresar al link se realiza el proceso de cambio de contraseña </t>
+  </si>
+  <si>
+    <t>2. Clic en el icono de ofertas ubicado en la parte superior</t>
+  </si>
+  <si>
+    <t>3. En cuestion de segundos aparecera una ventana para obtener un cupon de regalo ubicada en la esquina inferior izquierda</t>
+  </si>
+  <si>
+    <t>4. Ingresar nombres y correo</t>
+  </si>
+  <si>
+    <t>5. Seleccionar uno de los tres regalos</t>
+  </si>
+  <si>
+    <t>6. Hacer clic en redimir</t>
+  </si>
+  <si>
+    <t>7. Seleccionar cualquier producto</t>
+  </si>
+  <si>
+    <t>8. Ir al carrito</t>
+  </si>
+  <si>
+    <t>Visualizar el precio del producto seleccionado con el descuento del cupon aplicado automaticamente y correctamente</t>
+  </si>
+  <si>
+    <t>El precio del producto se visualiza con el descuento del cupon automaticamente y correctamente</t>
+  </si>
+  <si>
+    <t>Cupon de regalo para el cliente</t>
   </si>
 </sst>
 </file>
@@ -354,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,6 +412,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -391,15 +442,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,23 +451,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,17 +780,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF41B12-817A-4229-8BBD-1264EEED5D07}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
@@ -805,431 +844,603 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="12">
         <v>44452</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24"/>
       <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="15"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="15"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="23"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24"/>
       <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="15"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="24"/>
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="15"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="24"/>
       <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="15"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="21">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="12">
         <v>44458</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="21">
         <v>3</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="12">
         <v>44465</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="25" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>4</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="12">
+        <v>44478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="M16:M21"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
+  <mergeCells count="48">
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="M22:M29"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="I22:I29"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="K22:K29"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="K9:K15"/>
+    <mergeCell ref="L9:L15"/>
+    <mergeCell ref="M9:M15"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="H9:H15"/>
+    <mergeCell ref="I9:I15"/>
+    <mergeCell ref="J9:J15"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
     <mergeCell ref="M2:M8"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B8"/>
@@ -1242,18 +1453,18 @@
     <mergeCell ref="J2:J8"/>
     <mergeCell ref="K2:K8"/>
     <mergeCell ref="L2:L8"/>
-    <mergeCell ref="K9:K15"/>
-    <mergeCell ref="L9:L15"/>
-    <mergeCell ref="M9:M15"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="H9:H15"/>
-    <mergeCell ref="I9:I15"/>
-    <mergeCell ref="J9:J15"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="L16:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
